--- a/doc/网络分析list.xlsx
+++ b/doc/网络分析list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="87">
   <si>
     <t>输入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,6 +355,14 @@
   </si>
   <si>
     <t>远动规约分析（配网相关）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,9 +409,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -707,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -750,8 +761,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="27">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
@@ -764,7 +778,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
@@ -776,7 +790,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
@@ -785,7 +799,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
@@ -794,7 +808,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
@@ -803,7 +817,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="C7" s="1" t="s">
         <v>66</v>
       </c>
@@ -814,8 +828,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="40.5">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:8" ht="27">
+      <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -829,7 +843,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="27">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
@@ -838,7 +852,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="C10" s="1" t="s">
         <v>66</v>
       </c>
@@ -849,8 +863,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="27">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -864,7 +878,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="C12" s="1" t="s">
         <v>52</v>
       </c>
@@ -873,7 +887,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="C13" s="1" t="s">
         <v>53</v>
       </c>
@@ -885,7 +899,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
@@ -894,7 +908,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
@@ -903,7 +917,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="C16" s="1" t="s">
         <v>66</v>
       </c>
@@ -915,7 +929,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="40.5">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="C17" s="1" t="s">
         <v>81</v>
       </c>
@@ -927,7 +941,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="C18" s="1" t="s">
         <v>82</v>
       </c>
@@ -947,7 +961,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -958,7 +972,7 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
@@ -967,7 +981,7 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
       <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
@@ -976,7 +990,7 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="C23" s="1" t="s">
         <v>33</v>
       </c>
@@ -985,7 +999,7 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="C24" s="1" t="s">
         <v>56</v>
       </c>
@@ -994,7 +1008,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="27">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
       <c r="C25" s="1" t="s">
         <v>34</v>
       </c>
@@ -1006,7 +1020,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="C26" s="1" t="s">
         <v>35</v>
       </c>
@@ -1018,7 +1032,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="27">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1029,7 +1043,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="27">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
       <c r="C28" s="1" t="s">
         <v>37</v>
       </c>
@@ -1052,7 +1066,7 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1063,7 +1077,7 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
       <c r="C31" s="1" t="s">
         <v>60</v>
       </c>
@@ -1072,7 +1086,7 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3"/>
       <c r="C32" s="1" t="s">
         <v>61</v>
       </c>
@@ -1080,8 +1094,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="54">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:8" ht="40.5">
+      <c r="A33" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1094,8 +1108,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="54">
-      <c r="A34" s="2"/>
+    <row r="34" spans="1:8" ht="40.5">
+      <c r="A34" s="3"/>
       <c r="C34" s="1" t="s">
         <v>64</v>
       </c>
@@ -1165,7 +1179,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="27">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1179,7 +1193,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1188,7 +1202,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1197,7 +1211,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1206,7 +1220,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1217,7 +1231,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="C7" s="1" t="s">
         <v>70</v>
       </c>
@@ -1226,7 +1240,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="C8" s="1">
         <v>1588</v>
       </c>
@@ -1235,7 +1249,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="C9" s="1" t="s">
         <v>40</v>
       </c>
@@ -1244,7 +1258,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="C10" s="1" t="s">
         <v>77</v>
       </c>
@@ -1253,15 +1267,15 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="27">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3"/>
       <c r="C12" s="1" t="s">
         <v>44</v>
       </c>
@@ -1282,7 +1296,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1317,15 +1331,18 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>57</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="C3" s="1" t="s">
         <v>75</v>
       </c>

--- a/doc/网络分析list.xlsx
+++ b/doc/网络分析list.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15075" windowHeight="6270"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15075" windowHeight="6270" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="软件功能需求" sheetId="1" r:id="rId1"/>
     <sheet name="非软件功能需求" sheetId="2" r:id="rId2"/>
     <sheet name="新增" sheetId="3" r:id="rId3"/>
+    <sheet name="SRS" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="101">
   <si>
     <t>输入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,6 +364,62 @@
   </si>
   <si>
     <t>c1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议解析的对象是通信链路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信链路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MMS通信链路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104通信链路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMV通信链路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOOSE通信链路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配电网通信关联</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,7 +427,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,6 +443,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -395,11 +467,29 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -409,7 +499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -420,6 +510,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -718,7 +841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1354,4 +1477,112 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8" style="5"/>
+    <col min="5" max="5" width="16" style="5" customWidth="1"/>
+    <col min="6" max="6" width="64" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15.875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="16" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="12" customHeight="1" thickBot="1">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="2:9" ht="12" customHeight="1" thickBot="1">
+      <c r="B2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="12" customHeight="1">
+      <c r="B3" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="12" customHeight="1">
+      <c r="B4" s="10"/>
+      <c r="C4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="2:9" ht="12" customHeight="1">
+      <c r="B5" s="10"/>
+      <c r="C5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="2:9" ht="12" customHeight="1">
+      <c r="B6" s="10"/>
+      <c r="C6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="I3:I6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/网络分析list.xlsx
+++ b/doc/网络分析list.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15075" windowHeight="6270" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15075" windowHeight="6270"/>
   </bookViews>
   <sheets>
     <sheet name="软件功能需求" sheetId="1" r:id="rId1"/>
     <sheet name="非软件功能需求" sheetId="2" r:id="rId2"/>
     <sheet name="新增" sheetId="3" r:id="rId3"/>
-    <sheet name="SRS" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="87">
   <si>
     <t>输入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,62 +363,6 @@
   </si>
   <si>
     <t>c1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>协议解析的对象是通信链路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通信链路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MMS通信链路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>104通信链路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMV通信链路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOOSE通信链路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配电网通信关联</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +370,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,21 +386,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -467,29 +395,11 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -499,7 +409,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -510,39 +420,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -841,7 +718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1477,112 +1354,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="4" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8" style="5"/>
-    <col min="5" max="5" width="16" style="5" customWidth="1"/>
-    <col min="6" max="6" width="64" style="5" customWidth="1"/>
-    <col min="7" max="7" width="16" style="5" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="16" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="8" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9" ht="12" customHeight="1" thickBot="1">
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="2:9" ht="12" customHeight="1" thickBot="1">
-      <c r="B2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="12" customHeight="1">
-      <c r="B3" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="12" customHeight="1">
-      <c r="B4" s="10"/>
-      <c r="C4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="2:9" ht="12" customHeight="1">
-      <c r="B5" s="10"/>
-      <c r="C5" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="2:9" ht="12" customHeight="1">
-      <c r="B6" s="10"/>
-      <c r="C6" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I6" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="I3:I6"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>